--- a/crop_prices.xlsx
+++ b/crop_prices.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91955\Desktop\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3AC2F6-60A5-4AAD-A97F-AB64988E96CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{639F9700-DF9C-4B94-9D59-D3BB2D30D6B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-104" yWindow="-104" windowWidth="22326" windowHeight="11947" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="91">
   <si>
     <t>S_No</t>
   </si>
@@ -35,16 +35,7 @@
     <t>Variety_Type</t>
   </si>
   <si>
-    <t>Price_2018_19_Rs_per_Quintal</t>
-  </si>
-  <si>
     <t>Price_2022_23_Revised_Rs_per_Quintal</t>
-  </si>
-  <si>
-    <t>Price_Increase_Rs</t>
-  </si>
-  <si>
-    <t>Price_Increase_Percentage</t>
   </si>
   <si>
     <t>CEREALS</t>
@@ -665,15 +656,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H78"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="26.296875" customWidth="1"/>
+    <col min="3" max="3" width="24.19921875" customWidth="1"/>
+    <col min="4" max="4" width="21.09765625" customWidth="1"/>
+    <col min="5" max="5" width="33.3984375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -689,1926 +686,1224 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E2">
-        <v>6520</v>
-      </c>
-      <c r="F2">
         <v>7050</v>
       </c>
-      <c r="G2">
-        <v>530</v>
-      </c>
-      <c r="H2">
-        <v>8.1300000000000008</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E3">
-        <v>7295</v>
-      </c>
-      <c r="F3">
         <v>7880</v>
       </c>
-      <c r="G3">
-        <v>585</v>
-      </c>
-      <c r="H3">
-        <v>8.02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
       <c r="E4">
-        <v>7295</v>
-      </c>
-      <c r="F4">
         <v>7880</v>
       </c>
-      <c r="G4">
-        <v>585</v>
-      </c>
-      <c r="H4">
-        <v>8.02</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5">
-        <v>7050</v>
-      </c>
-      <c r="F5">
         <v>7600</v>
       </c>
-      <c r="G5">
-        <v>550</v>
-      </c>
-      <c r="H5">
-        <v>7.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E6">
-        <v>7900</v>
-      </c>
-      <c r="F6">
         <v>8500</v>
       </c>
-      <c r="G6">
-        <v>600</v>
-      </c>
-      <c r="H6">
-        <v>7.59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7">
-        <v>6600</v>
-      </c>
-      <c r="F7">
         <v>7260</v>
       </c>
-      <c r="G7">
-        <v>660</v>
-      </c>
-      <c r="H7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>7075</v>
-      </c>
-      <c r="F8">
         <v>7780</v>
       </c>
-      <c r="G8">
-        <v>705</v>
-      </c>
-      <c r="H8">
-        <v>9.9600000000000009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
       <c r="E9">
-        <v>7050</v>
-      </c>
-      <c r="F9">
         <v>7750</v>
       </c>
-      <c r="G9">
-        <v>700</v>
-      </c>
-      <c r="H9">
-        <v>9.93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E10">
-        <v>11550</v>
-      </c>
-      <c r="F10">
         <v>12700</v>
       </c>
-      <c r="G10">
-        <v>1150</v>
-      </c>
-      <c r="H10">
-        <v>9.9600000000000009</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>46000</v>
-      </c>
-      <c r="F11">
         <v>50500</v>
       </c>
-      <c r="G11">
-        <v>4500</v>
-      </c>
-      <c r="H11">
-        <v>9.7799999999999994</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E12">
-        <v>9200</v>
-      </c>
-      <c r="F12">
         <v>10000</v>
       </c>
-      <c r="G12">
-        <v>800</v>
-      </c>
-      <c r="H12">
-        <v>8.6999999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E13">
-        <v>33800</v>
-      </c>
-      <c r="F13">
         <v>37000</v>
       </c>
-      <c r="G13">
-        <v>3200</v>
-      </c>
-      <c r="H13">
-        <v>9.4700000000000006</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>6900</v>
-      </c>
-      <c r="F14">
         <v>7600</v>
       </c>
-      <c r="G14">
-        <v>700</v>
-      </c>
-      <c r="H14">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15">
-        <v>33300</v>
-      </c>
-      <c r="F15">
         <v>36600</v>
       </c>
-      <c r="G15">
-        <v>3300</v>
-      </c>
-      <c r="H15">
-        <v>9.91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E16">
-        <v>23000</v>
-      </c>
-      <c r="F16">
         <v>25300</v>
       </c>
-      <c r="G16">
-        <v>2300</v>
-      </c>
-      <c r="H16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>11200</v>
-      </c>
-      <c r="F17">
         <v>12300</v>
       </c>
-      <c r="G17">
-        <v>1100</v>
-      </c>
-      <c r="H17">
-        <v>9.82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E18">
-        <v>18400</v>
-      </c>
-      <c r="F18">
         <v>20200</v>
       </c>
-      <c r="G18">
-        <v>1800</v>
-      </c>
-      <c r="H18">
-        <v>9.7799999999999994</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E19">
-        <v>18400</v>
-      </c>
-      <c r="F19">
         <v>20200</v>
       </c>
-      <c r="G19">
-        <v>1800</v>
-      </c>
-      <c r="H19">
-        <v>9.7799999999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>13800</v>
-      </c>
-      <c r="F20">
         <v>15200</v>
       </c>
-      <c r="G20">
-        <v>1400</v>
-      </c>
-      <c r="H20">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E21">
-        <v>6200</v>
-      </c>
-      <c r="F21">
         <v>6800</v>
       </c>
-      <c r="G21">
-        <v>600</v>
-      </c>
-      <c r="H21">
-        <v>9.68</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E22">
-        <v>5200</v>
-      </c>
-      <c r="F22">
         <v>5700</v>
       </c>
-      <c r="G22">
-        <v>500</v>
-      </c>
-      <c r="H22">
-        <v>9.6199999999999992</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
         <v>30</v>
       </c>
-      <c r="D23" t="s">
-        <v>33</v>
-      </c>
       <c r="E23">
-        <v>5200</v>
-      </c>
-      <c r="F23">
         <v>5700</v>
       </c>
-      <c r="G23">
-        <v>500</v>
-      </c>
-      <c r="H23">
-        <v>9.6199999999999992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E24">
-        <v>5200</v>
-      </c>
-      <c r="F24">
         <v>5700</v>
       </c>
-      <c r="G24">
-        <v>500</v>
-      </c>
-      <c r="H24">
-        <v>9.6199999999999992</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E25">
-        <v>5200</v>
-      </c>
-      <c r="F25">
         <v>5700</v>
       </c>
-      <c r="G25">
-        <v>500</v>
-      </c>
-      <c r="H25">
-        <v>9.6199999999999992</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E26">
-        <v>20700</v>
-      </c>
-      <c r="F26">
         <v>22700</v>
       </c>
-      <c r="G26">
-        <v>2000</v>
-      </c>
-      <c r="H26">
-        <v>9.66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E27">
-        <v>20700</v>
-      </c>
-      <c r="F27">
         <v>24700</v>
       </c>
-      <c r="G27">
-        <v>4000</v>
-      </c>
-      <c r="H27">
-        <v>19.32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" t="s">
         <v>36</v>
       </c>
-      <c r="C28" t="s">
-        <v>39</v>
-      </c>
       <c r="D28" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28">
-        <v>19000</v>
-      </c>
-      <c r="F28">
         <v>20900</v>
       </c>
-      <c r="G28">
-        <v>1900</v>
-      </c>
-      <c r="H28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" t="s">
         <v>36</v>
       </c>
-      <c r="C29" t="s">
-        <v>39</v>
-      </c>
       <c r="D29" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E29">
-        <v>29900</v>
-      </c>
-      <c r="F29">
         <v>32900</v>
       </c>
-      <c r="G29">
-        <v>3000</v>
-      </c>
-      <c r="H29">
-        <v>10.029999999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" t="s">
         <v>36</v>
       </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
       <c r="D30" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E30">
-        <v>29900</v>
-      </c>
-      <c r="F30">
         <v>32900</v>
       </c>
-      <c r="G30">
-        <v>3000</v>
-      </c>
-      <c r="H30">
-        <v>10.029999999999999</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>12950</v>
-      </c>
-      <c r="F31">
         <v>13600</v>
       </c>
-      <c r="G31">
-        <v>650</v>
-      </c>
-      <c r="H31">
-        <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E32">
-        <v>17050</v>
-      </c>
-      <c r="F32">
         <v>17900</v>
       </c>
-      <c r="G32">
-        <v>850</v>
-      </c>
-      <c r="H32">
-        <v>4.99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="E33">
-        <v>12400</v>
-      </c>
-      <c r="F33">
         <v>13000</v>
       </c>
-      <c r="G33">
-        <v>600</v>
-      </c>
-      <c r="H33">
-        <v>4.84</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E34">
-        <v>14650</v>
-      </c>
-      <c r="F34">
         <v>15400</v>
       </c>
-      <c r="G34">
-        <v>750</v>
-      </c>
-      <c r="H34">
-        <v>5.12</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E35">
-        <v>8660</v>
-      </c>
-      <c r="F35">
         <v>9100</v>
       </c>
-      <c r="G35">
-        <v>440</v>
-      </c>
-      <c r="H35">
-        <v>5.08</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E36">
-        <v>14650</v>
-      </c>
-      <c r="F36">
         <v>16100</v>
       </c>
-      <c r="G36">
-        <v>1450</v>
-      </c>
-      <c r="H36">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E37">
-        <v>13800</v>
-      </c>
-      <c r="F37">
         <v>15200</v>
       </c>
-      <c r="G37">
-        <v>1400</v>
-      </c>
-      <c r="H37">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E38">
-        <v>6900</v>
-      </c>
-      <c r="F38">
         <v>7600</v>
       </c>
-      <c r="G38">
-        <v>700</v>
-      </c>
-      <c r="H38">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E39">
-        <v>15500</v>
-      </c>
-      <c r="F39">
         <v>17000</v>
       </c>
-      <c r="G39">
-        <v>1500</v>
-      </c>
-      <c r="H39">
-        <v>9.68</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E40">
-        <v>11625</v>
-      </c>
-      <c r="F40">
         <v>12800</v>
       </c>
-      <c r="G40">
-        <v>1175</v>
-      </c>
-      <c r="H40">
-        <v>10.11</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" t="s">
         <v>49</v>
       </c>
-      <c r="C41" t="s">
-        <v>52</v>
-      </c>
       <c r="D41" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41">
-        <v>15500</v>
-      </c>
-      <c r="F41">
         <v>17000</v>
       </c>
-      <c r="G41">
-        <v>1500</v>
-      </c>
-      <c r="H41">
-        <v>9.68</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="s">
         <v>49</v>
       </c>
-      <c r="C42" t="s">
-        <v>52</v>
-      </c>
       <c r="D42" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E42">
-        <v>71300</v>
-      </c>
-      <c r="F42">
         <v>78500</v>
       </c>
-      <c r="G42">
-        <v>7200</v>
-      </c>
-      <c r="H42">
-        <v>10.1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
         <v>49</v>
       </c>
-      <c r="C43" t="s">
-        <v>52</v>
-      </c>
       <c r="D43" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E43">
-        <v>38000</v>
-      </c>
-      <c r="F43">
         <v>41800</v>
       </c>
-      <c r="G43">
-        <v>3800</v>
-      </c>
-      <c r="H43">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44">
-        <v>14650</v>
-      </c>
-      <c r="F44">
         <v>16100</v>
       </c>
-      <c r="G44">
-        <v>1450</v>
-      </c>
-      <c r="H44">
-        <v>9.9</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D45" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E45">
-        <v>50500</v>
-      </c>
-      <c r="F45">
         <v>52900</v>
       </c>
-      <c r="G45">
-        <v>2400</v>
-      </c>
-      <c r="H45">
-        <v>4.75</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D46" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E46">
-        <v>32900</v>
-      </c>
-      <c r="F46">
         <v>34500</v>
       </c>
-      <c r="G46">
-        <v>1600</v>
-      </c>
-      <c r="H46">
-        <v>4.8600000000000003</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E47">
-        <v>23250</v>
-      </c>
-      <c r="F47">
         <v>25500</v>
       </c>
-      <c r="G47">
-        <v>2250</v>
-      </c>
-      <c r="H47">
-        <v>9.68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E48">
-        <v>13800</v>
-      </c>
-      <c r="F48">
         <v>14500</v>
       </c>
-      <c r="G48">
-        <v>700</v>
-      </c>
-      <c r="H48">
-        <v>5.07</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49">
-        <v>12900</v>
-      </c>
-      <c r="F49">
         <v>13550</v>
       </c>
-      <c r="G49">
-        <v>650</v>
-      </c>
-      <c r="H49">
-        <v>5.04</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E50">
-        <v>34500</v>
-      </c>
-      <c r="F50">
         <v>36200</v>
       </c>
-      <c r="G50">
-        <v>1700</v>
-      </c>
-      <c r="H50">
-        <v>4.93</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E51">
-        <v>16100</v>
-      </c>
-      <c r="F51">
         <v>16900</v>
       </c>
-      <c r="G51">
-        <v>800</v>
-      </c>
-      <c r="H51">
-        <v>4.97</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C52" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E52">
-        <v>12100</v>
-      </c>
-      <c r="F52">
         <v>12700</v>
       </c>
-      <c r="G52">
-        <v>600</v>
-      </c>
-      <c r="H52">
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C53" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E53">
-        <v>12100</v>
-      </c>
-      <c r="F53">
         <v>12700</v>
       </c>
-      <c r="G53">
-        <v>600</v>
-      </c>
-      <c r="H53">
-        <v>4.96</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C54" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D54" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54">
-        <v>9500</v>
-      </c>
-      <c r="F54">
         <v>10000</v>
       </c>
-      <c r="G54">
-        <v>500</v>
-      </c>
-      <c r="H54">
-        <v>5.26</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C55" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D55" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E55">
-        <v>29000</v>
-      </c>
-      <c r="F55">
         <v>30400</v>
       </c>
-      <c r="G55">
-        <v>1400</v>
-      </c>
-      <c r="H55">
-        <v>4.83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C56" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D56" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E56">
-        <v>12650</v>
-      </c>
-      <c r="F56">
         <v>13300</v>
       </c>
-      <c r="G56">
-        <v>650</v>
-      </c>
-      <c r="H56">
-        <v>5.14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C57" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E57">
-        <v>7900</v>
-      </c>
-      <c r="F57">
         <v>8300</v>
       </c>
-      <c r="G57">
-        <v>400</v>
-      </c>
-      <c r="H57">
-        <v>5.0599999999999996</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E58">
-        <v>21850</v>
-      </c>
-      <c r="F58">
         <v>24000</v>
       </c>
-      <c r="G58">
-        <v>2150</v>
-      </c>
-      <c r="H58">
-        <v>9.84</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C59" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E59">
-        <v>10350</v>
-      </c>
-      <c r="F59">
         <v>11400</v>
       </c>
-      <c r="G59">
-        <v>1050</v>
-      </c>
-      <c r="H59">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
         <v>64</v>
       </c>
-      <c r="C60" t="s">
-        <v>67</v>
-      </c>
       <c r="E60">
-        <v>10350</v>
-      </c>
-      <c r="F60">
         <v>11400</v>
       </c>
-      <c r="G60">
-        <v>1050</v>
-      </c>
-      <c r="H60">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D61" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="E61">
         <v>25850</v>
       </c>
-      <c r="F61">
-        <v>25850</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
-      </c>
-      <c r="H61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C62" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D62" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E62">
         <v>29300</v>
       </c>
-      <c r="F62">
-        <v>29300</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C63" t="s">
+        <v>65</v>
+      </c>
+      <c r="D63" t="s">
         <v>68</v>
-      </c>
-      <c r="D63" t="s">
-        <v>71</v>
       </c>
       <c r="E63">
         <v>29300</v>
       </c>
-      <c r="F63">
-        <v>29300</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
-      </c>
-      <c r="H63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E64">
         <v>126500</v>
       </c>
-      <c r="F64">
-        <v>126500</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D65" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="E65">
         <v>126500</v>
       </c>
-      <c r="F65">
-        <v>126500</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C66" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D66" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E66">
         <v>138000</v>
       </c>
-      <c r="F66">
-        <v>138000</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C67" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D67" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E67">
         <v>138000</v>
       </c>
-      <c r="F67">
-        <v>138000</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-      <c r="H67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C68" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E68">
-        <v>20700</v>
-      </c>
-      <c r="F68">
         <v>22700</v>
       </c>
-      <c r="G68">
-        <v>2000</v>
-      </c>
-      <c r="H68">
-        <v>9.66</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C69" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E69">
         <v>4300</v>
       </c>
-      <c r="F69">
-        <v>4300</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-      <c r="H69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
+        <v>73</v>
+      </c>
+      <c r="C70" t="s">
         <v>76</v>
       </c>
-      <c r="C70" t="s">
-        <v>79</v>
-      </c>
       <c r="E70">
-        <v>53500</v>
-      </c>
-      <c r="F70">
         <v>58800</v>
       </c>
-      <c r="G70">
-        <v>5300</v>
-      </c>
-      <c r="H70">
-        <v>9.91</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C71" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E71">
-        <v>44900</v>
-      </c>
-      <c r="F71">
         <v>49400</v>
       </c>
-      <c r="G71">
-        <v>4500</v>
-      </c>
-      <c r="H71">
-        <v>10.02</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E72">
-        <v>7250</v>
-      </c>
-      <c r="F72">
         <v>8000</v>
       </c>
-      <c r="G72">
-        <v>750</v>
-      </c>
-      <c r="H72">
-        <v>10.34</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C73" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E73">
-        <v>12900</v>
-      </c>
-      <c r="F73">
         <v>14200</v>
       </c>
-      <c r="G73">
-        <v>1300</v>
-      </c>
-      <c r="H73">
-        <v>10.08</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C74" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E74">
-        <v>6900</v>
-      </c>
-      <c r="F74">
         <v>7600</v>
       </c>
-      <c r="G74">
-        <v>700</v>
-      </c>
-      <c r="H74">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C75" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D75" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E75">
-        <v>13800</v>
-      </c>
-      <c r="F75">
         <v>15200</v>
       </c>
-      <c r="G75">
-        <v>1400</v>
-      </c>
-      <c r="H75">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C76" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D76" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E76">
-        <v>20700</v>
-      </c>
-      <c r="F76">
         <v>22800</v>
       </c>
-      <c r="G76">
-        <v>2100</v>
-      </c>
-      <c r="H76">
-        <v>10.14</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C77" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E77">
-        <v>12900</v>
-      </c>
-      <c r="F77">
         <v>14200</v>
       </c>
-      <c r="G77">
-        <v>1300</v>
-      </c>
-      <c r="H77">
-        <v>10.08</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E78">
-        <v>8600</v>
-      </c>
-      <c r="F78">
         <v>9400</v>
-      </c>
-      <c r="G78">
-        <v>800</v>
-      </c>
-      <c r="H78">
-        <v>9.3000000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -2629,24 +1924,24 @@
         <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>24</v>
@@ -2666,7 +1961,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B3">
         <v>10</v>
@@ -2686,7 +1981,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B4">
         <v>11</v>
@@ -2706,7 +2001,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B5">
         <v>19</v>
@@ -2726,7 +2021,7 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>13</v>
